--- a/EXTB/Format/付帯設備利用明細書.xlsx
+++ b/EXTB/Format/付帯設備利用明細書.xlsx
@@ -1,25 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\奥田\source\repos\EXT\EXTB\Format\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509C35F5-C4E4-4646-A7D3-3BCBE5D51302}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="24240" windowHeight="12060" tabRatio="826"/>
+    <workbookView xWindow="5985" yWindow="-17220" windowWidth="21600" windowHeight="12735" tabRatio="826" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シアター一般" sheetId="50" r:id="rId1"/>
     <sheet name="シアター社内" sheetId="52" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">シアター一般!$A$1:$L$63</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">シアター一般!$A$1:$M$64</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">シアター社内!$A$1:$H$39</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
   <si>
     <t>様</t>
     <rPh sb="0" eb="1">
@@ -348,11 +362,29 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>税率</t>
+    <rPh sb="0" eb="2">
+      <t>ゼイリツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>税額</t>
+    <rPh sb="0" eb="2">
+      <t>ゼイガク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>消費税</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -777,7 +809,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="70">
+  <borders count="71">
     <border>
       <left/>
       <right/>
@@ -1620,6 +1652,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1644,7 +1685,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="309">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2177,6 +2218,125 @@
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="19" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="19" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="21" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="21" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="20" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="20" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="18" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="18" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="19" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="19" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="21" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="21" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="19" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="19" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="41" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="41" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="19" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="19" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="19" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="19" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="18" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="18" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2258,114 +2418,79 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="18" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="18" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="19" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="19" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="19" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="19" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="18" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="18" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="19" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="19" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="19" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="19" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="19" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="19" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="41" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="41" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="21" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="38" fontId="21" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="38" fontId="20" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="20" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="21" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="21" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2413,90 +2538,60 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="24" fillId="0" borderId="70" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="25" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="16" fillId="0" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="16" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="16" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="16" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
-    <cellStyle name="桁区切り 2" xfId="3"/>
+    <cellStyle name="桁区切り 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="通貨" xfId="2" builtinId="7"/>
-    <cellStyle name="通貨 2" xfId="4"/>
+    <cellStyle name="通貨 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="5"/>
-    <cellStyle name="標準 3" xfId="6"/>
+    <cellStyle name="標準 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="標準 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2517,25 +2612,31 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1857375</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="4" name="グループ化 2"/>
+        <xdr:cNvPr id="4" name="グループ化 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="19050" y="16678275"/>
+          <a:off x="19050" y="16983075"/>
           <a:ext cx="2219325" cy="1076325"/>
           <a:chOff x="38100" y="13115925"/>
           <a:chExt cx="2171700" cy="1076325"/>
@@ -2543,7 +2644,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+          <xdr:cNvPr id="5" name="正方形/長方形 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
@@ -2580,7 +2687,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+          <xdr:cNvPr id="6" name="正方形/長方形 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
@@ -2628,7 +2741,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+          <xdr:cNvPr id="7" name="正方形/長方形 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
@@ -2665,7 +2784,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+          <xdr:cNvPr id="8" name="正方形/長方形 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
@@ -2713,7 +2838,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+          <xdr:cNvPr id="9" name="正方形/長方形 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
@@ -2761,7 +2892,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+          <xdr:cNvPr id="10" name="正方形/長方形 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
@@ -2801,39 +2938,51 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>866775</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="16" name="グループ化 15"/>
+        <xdr:cNvPr id="16" name="グループ化 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6400800" y="723900"/>
-          <a:ext cx="3714750" cy="914401"/>
+          <a:off x="7381875" y="781050"/>
+          <a:ext cx="4086225" cy="914401"/>
           <a:chOff x="6400800" y="723900"/>
-          <a:chExt cx="3714750" cy="914401"/>
+          <a:chExt cx="3486150" cy="914401"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
+          <xdr:cNvPr id="15" name="テキスト ボックス 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
             <a:off x="6417039" y="1166939"/>
-            <a:ext cx="3542628" cy="331268"/>
+            <a:ext cx="2901893" cy="331268"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2987,7 +3136,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+          <xdr:cNvPr id="2" name="テキスト ボックス 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3029,20 +3184,26 @@
                 <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>イベント事業センター</a:t>
+              <a:t>イベント事業部</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+          <xdr:cNvPr id="3" name="テキスト ボックス 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
             <a:off x="6400800" y="723900"/>
-            <a:ext cx="3714750" cy="285750"/>
+            <a:ext cx="3341200" cy="285750"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3085,7 +3246,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+          <xdr:cNvPr id="12" name="テキスト ボックス 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3153,13 +3320,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+          <xdr:cNvPr id="13" name="テキスト ボックス 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8328322" y="1390650"/>
-            <a:ext cx="1602388" cy="233352"/>
+            <a:off x="8609463" y="1390650"/>
+            <a:ext cx="1237324" cy="233352"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3232,7 +3405,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="4" name="グループ化 2"/>
+        <xdr:cNvPr id="4" name="グループ化 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -3247,7 +3426,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+          <xdr:cNvPr id="5" name="正方形/長方形 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
@@ -3284,7 +3469,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+          <xdr:cNvPr id="6" name="正方形/長方形 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
@@ -3332,7 +3523,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+          <xdr:cNvPr id="7" name="正方形/長方形 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
@@ -3369,7 +3566,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+          <xdr:cNvPr id="8" name="正方形/長方形 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
@@ -3417,7 +3620,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+          <xdr:cNvPr id="9" name="正方形/長方形 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
@@ -3465,7 +3674,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+          <xdr:cNvPr id="10" name="正方形/長方形 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
@@ -3518,7 +3733,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="16" name="グループ化 15"/>
+        <xdr:cNvPr id="16" name="グループ化 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3531,7 +3752,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+          <xdr:cNvPr id="12" name="テキスト ボックス 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3599,7 +3826,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+          <xdr:cNvPr id="13" name="テキスト ボックス 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3657,7 +3890,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
+          <xdr:cNvPr id="15" name="テキスト ボックス 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3741,7 +3980,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+          <xdr:cNvPr id="3" name="テキスト ボックス 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3906,7 +4151,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3948,7 +4193,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3981,9 +4226,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4016,6 +4278,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4191,15 +4470,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H40" sqref="H40:H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
@@ -4210,51 +4489,55 @@
     <col min="4" max="4" width="10.625" style="4" customWidth="1"/>
     <col min="5" max="5" width="6.75" style="4" customWidth="1"/>
     <col min="6" max="8" width="11.5" style="4" customWidth="1"/>
-    <col min="9" max="10" width="12.75" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="4"/>
+    <col min="9" max="9" width="6.875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="4" customWidth="1"/>
+    <col min="11" max="12" width="12.75" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
-      <c r="I1" s="214"/>
-      <c r="J1" s="214"/>
-    </row>
-    <row r="2" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="215" t="s">
+      <c r="K1" s="212"/>
+      <c r="L1" s="212"/>
+    </row>
+    <row r="2" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="213" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="215"/>
-      <c r="C2" s="215"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
-      <c r="G2" s="215"/>
-      <c r="H2" s="215"/>
-      <c r="I2" s="215"/>
-      <c r="J2" s="215"/>
-    </row>
-    <row r="3" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="213"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="213"/>
+      <c r="H2" s="213"/>
+      <c r="I2" s="213"/>
+      <c r="J2" s="213"/>
+      <c r="K2" s="213"/>
+      <c r="L2" s="213"/>
+    </row>
+    <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="78"/>
       <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="182"/>
     </row>
-    <row r="4" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="186"/>
-      <c r="C4" s="186"/>
+    <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="227"/>
+      <c r="C4" s="227"/>
       <c r="G4" s="182"/>
     </row>
-    <row r="5" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="216"/>
-      <c r="C5" s="216"/>
+    <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="214"/>
+      <c r="C5" s="214"/>
       <c r="G5" s="183"/>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" s="9" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>36</v>
       </c>
@@ -4266,17 +4549,19 @@
       <c r="G6" s="185"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="184"/>
-    </row>
-    <row r="7" spans="1:10" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="217" t="s">
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="184"/>
+    </row>
+    <row r="7" spans="1:12" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="215" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="218"/>
-      <c r="C7" s="219" t="s">
+      <c r="B7" s="216"/>
+      <c r="C7" s="217" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="220"/>
+      <c r="D7" s="218"/>
       <c r="E7" s="10" t="s">
         <v>3</v>
       </c>
@@ -4289,12 +4574,18 @@
       <c r="H7" s="158" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="221" t="s">
+      <c r="I7" s="188" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="188" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="219" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="222"/>
-    </row>
-    <row r="8" spans="1:10" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="L7" s="220"/>
+    </row>
+    <row r="8" spans="1:12" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A8" s="11"/>
       <c r="B8" s="12"/>
       <c r="C8" s="13"/>
@@ -4305,10 +4596,12 @@
       <c r="F8" s="164"/>
       <c r="G8" s="164"/>
       <c r="H8" s="16"/>
-      <c r="I8" s="231"/>
-      <c r="J8" s="232"/>
-    </row>
-    <row r="9" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="225"/>
+      <c r="L8" s="226"/>
+    </row>
+    <row r="9" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="19"/>
       <c r="B9" s="20"/>
       <c r="C9" s="21"/>
@@ -4317,10 +4610,12 @@
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
-      <c r="I9" s="233"/>
-      <c r="J9" s="234"/>
-    </row>
-    <row r="10" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I9" s="294"/>
+      <c r="J9" s="294"/>
+      <c r="K9" s="201"/>
+      <c r="L9" s="202"/>
+    </row>
+    <row r="10" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="19"/>
       <c r="B10" s="20"/>
       <c r="C10" s="21"/>
@@ -4329,10 +4624,12 @@
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
-      <c r="I10" s="233"/>
-      <c r="J10" s="234"/>
-    </row>
-    <row r="11" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I10" s="294"/>
+      <c r="J10" s="294"/>
+      <c r="K10" s="201"/>
+      <c r="L10" s="202"/>
+    </row>
+    <row r="11" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="168"/>
       <c r="B11" s="165"/>
       <c r="C11" s="166"/>
@@ -4341,10 +4638,12 @@
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
-      <c r="I11" s="233"/>
-      <c r="J11" s="234"/>
-    </row>
-    <row r="12" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I11" s="294"/>
+      <c r="J11" s="294"/>
+      <c r="K11" s="201"/>
+      <c r="L11" s="202"/>
+    </row>
+    <row r="12" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="168"/>
       <c r="B12" s="165"/>
       <c r="C12" s="166"/>
@@ -4353,10 +4652,12 @@
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
       <c r="H12" s="23"/>
-      <c r="I12" s="233"/>
-      <c r="J12" s="234"/>
-    </row>
-    <row r="13" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I12" s="294"/>
+      <c r="J12" s="294"/>
+      <c r="K12" s="201"/>
+      <c r="L12" s="202"/>
+    </row>
+    <row r="13" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="168"/>
       <c r="B13" s="165"/>
       <c r="C13" s="166"/>
@@ -4365,10 +4666,12 @@
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
-      <c r="I13" s="233"/>
-      <c r="J13" s="234"/>
-    </row>
-    <row r="14" spans="1:10" s="157" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I13" s="294"/>
+      <c r="J13" s="294"/>
+      <c r="K13" s="201"/>
+      <c r="L13" s="202"/>
+    </row>
+    <row r="14" spans="1:12" s="157" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="168"/>
       <c r="B14" s="165"/>
       <c r="C14" s="166"/>
@@ -4377,10 +4680,12 @@
       <c r="F14" s="156"/>
       <c r="G14" s="156"/>
       <c r="H14" s="156"/>
-      <c r="I14" s="235"/>
-      <c r="J14" s="236"/>
-    </row>
-    <row r="15" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I14" s="295"/>
+      <c r="J14" s="295"/>
+      <c r="K14" s="209"/>
+      <c r="L14" s="210"/>
+    </row>
+    <row r="15" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="168"/>
       <c r="B15" s="165"/>
       <c r="C15" s="166"/>
@@ -4389,10 +4694,12 @@
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
-      <c r="I15" s="233"/>
-      <c r="J15" s="234"/>
-    </row>
-    <row r="16" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I15" s="294"/>
+      <c r="J15" s="294"/>
+      <c r="K15" s="201"/>
+      <c r="L15" s="202"/>
+    </row>
+    <row r="16" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="168"/>
       <c r="B16" s="165"/>
       <c r="C16" s="166"/>
@@ -4401,10 +4708,12 @@
       <c r="F16" s="80"/>
       <c r="G16" s="80"/>
       <c r="H16" s="80"/>
-      <c r="I16" s="233"/>
-      <c r="J16" s="234"/>
-    </row>
-    <row r="17" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I16" s="296"/>
+      <c r="J16" s="296"/>
+      <c r="K16" s="201"/>
+      <c r="L16" s="202"/>
+    </row>
+    <row r="17" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="168"/>
       <c r="B17" s="165"/>
       <c r="C17" s="166"/>
@@ -4413,10 +4722,12 @@
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
-      <c r="I17" s="233"/>
-      <c r="J17" s="234"/>
-    </row>
-    <row r="18" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I17" s="294"/>
+      <c r="J17" s="294"/>
+      <c r="K17" s="201"/>
+      <c r="L17" s="202"/>
+    </row>
+    <row r="18" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="168"/>
       <c r="B18" s="165"/>
       <c r="C18" s="166"/>
@@ -4425,10 +4736,12 @@
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
-      <c r="I18" s="233"/>
-      <c r="J18" s="234"/>
-    </row>
-    <row r="19" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I18" s="294"/>
+      <c r="J18" s="294"/>
+      <c r="K18" s="201"/>
+      <c r="L18" s="202"/>
+    </row>
+    <row r="19" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="168"/>
       <c r="B19" s="171"/>
       <c r="C19" s="166"/>
@@ -4437,10 +4750,12 @@
       <c r="F19" s="173"/>
       <c r="G19" s="173"/>
       <c r="H19" s="173"/>
-      <c r="I19" s="237"/>
-      <c r="J19" s="238"/>
-    </row>
-    <row r="20" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I19" s="297"/>
+      <c r="J19" s="297"/>
+      <c r="K19" s="205"/>
+      <c r="L19" s="206"/>
+    </row>
+    <row r="20" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="19"/>
       <c r="B20" s="20"/>
       <c r="C20" s="21"/>
@@ -4449,10 +4764,12 @@
       <c r="F20" s="23"/>
       <c r="G20" s="23"/>
       <c r="H20" s="23"/>
-      <c r="I20" s="239"/>
-      <c r="J20" s="240"/>
-    </row>
-    <row r="21" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I20" s="294"/>
+      <c r="J20" s="294"/>
+      <c r="K20" s="207"/>
+      <c r="L20" s="208"/>
+    </row>
+    <row r="21" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="19"/>
       <c r="B21" s="174"/>
       <c r="C21" s="21"/>
@@ -4461,10 +4778,12 @@
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
       <c r="H21" s="23"/>
-      <c r="I21" s="233"/>
-      <c r="J21" s="234"/>
-    </row>
-    <row r="22" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I21" s="294"/>
+      <c r="J21" s="294"/>
+      <c r="K21" s="201"/>
+      <c r="L21" s="202"/>
+    </row>
+    <row r="22" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="19"/>
       <c r="B22" s="174"/>
       <c r="C22" s="21"/>
@@ -4473,10 +4792,12 @@
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
       <c r="H22" s="23"/>
-      <c r="I22" s="233"/>
-      <c r="J22" s="234"/>
-    </row>
-    <row r="23" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I22" s="294"/>
+      <c r="J22" s="294"/>
+      <c r="K22" s="201"/>
+      <c r="L22" s="202"/>
+    </row>
+    <row r="23" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="19"/>
       <c r="B23" s="174"/>
       <c r="C23" s="21"/>
@@ -4485,10 +4806,12 @@
       <c r="F23" s="23"/>
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>
-      <c r="I23" s="233"/>
-      <c r="J23" s="234"/>
-    </row>
-    <row r="24" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I23" s="294"/>
+      <c r="J23" s="294"/>
+      <c r="K23" s="201"/>
+      <c r="L23" s="202"/>
+    </row>
+    <row r="24" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="19"/>
       <c r="B24" s="176"/>
       <c r="C24" s="21"/>
@@ -4497,10 +4820,12 @@
       <c r="F24" s="23"/>
       <c r="G24" s="23"/>
       <c r="H24" s="23"/>
-      <c r="I24" s="233"/>
-      <c r="J24" s="234"/>
-    </row>
-    <row r="25" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I24" s="294"/>
+      <c r="J24" s="294"/>
+      <c r="K24" s="201"/>
+      <c r="L24" s="202"/>
+    </row>
+    <row r="25" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="19"/>
       <c r="B25" s="20"/>
       <c r="C25" s="21"/>
@@ -4509,10 +4834,12 @@
       <c r="F25" s="23"/>
       <c r="G25" s="23"/>
       <c r="H25" s="23"/>
-      <c r="I25" s="241"/>
-      <c r="J25" s="242"/>
-    </row>
-    <row r="26" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I25" s="294"/>
+      <c r="J25" s="294"/>
+      <c r="K25" s="203"/>
+      <c r="L25" s="204"/>
+    </row>
+    <row r="26" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="19"/>
       <c r="B26" s="20"/>
       <c r="C26" s="21"/>
@@ -4521,10 +4848,12 @@
       <c r="F26" s="23"/>
       <c r="G26" s="23"/>
       <c r="H26" s="23"/>
-      <c r="I26" s="243"/>
-      <c r="J26" s="244"/>
-    </row>
-    <row r="27" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I26" s="294"/>
+      <c r="J26" s="294"/>
+      <c r="K26" s="197"/>
+      <c r="L26" s="198"/>
+    </row>
+    <row r="27" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="19"/>
       <c r="B27" s="20"/>
       <c r="C27" s="21"/>
@@ -4533,10 +4862,12 @@
       <c r="F27" s="23"/>
       <c r="G27" s="23"/>
       <c r="H27" s="23"/>
-      <c r="I27" s="243"/>
-      <c r="J27" s="244"/>
-    </row>
-    <row r="28" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I27" s="294"/>
+      <c r="J27" s="294"/>
+      <c r="K27" s="197"/>
+      <c r="L27" s="198"/>
+    </row>
+    <row r="28" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="19"/>
       <c r="B28" s="20"/>
       <c r="C28" s="21"/>
@@ -4545,10 +4876,12 @@
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
       <c r="H28" s="23"/>
-      <c r="I28" s="243"/>
-      <c r="J28" s="244"/>
-    </row>
-    <row r="29" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I28" s="294"/>
+      <c r="J28" s="294"/>
+      <c r="K28" s="197"/>
+      <c r="L28" s="198"/>
+    </row>
+    <row r="29" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="19"/>
       <c r="B29" s="20"/>
       <c r="C29" s="21"/>
@@ -4557,10 +4890,12 @@
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
-      <c r="I29" s="243"/>
-      <c r="J29" s="244"/>
-    </row>
-    <row r="30" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I29" s="294"/>
+      <c r="J29" s="294"/>
+      <c r="K29" s="197"/>
+      <c r="L29" s="198"/>
+    </row>
+    <row r="30" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="19"/>
       <c r="B30" s="20"/>
       <c r="C30" s="21"/>
@@ -4569,10 +4904,12 @@
       <c r="F30" s="23"/>
       <c r="G30" s="23"/>
       <c r="H30" s="23"/>
-      <c r="I30" s="223"/>
-      <c r="J30" s="224"/>
-    </row>
-    <row r="31" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I30" s="294"/>
+      <c r="J30" s="294"/>
+      <c r="K30" s="199"/>
+      <c r="L30" s="200"/>
+    </row>
+    <row r="31" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="19"/>
       <c r="B31" s="20"/>
       <c r="C31" s="21"/>
@@ -4581,10 +4918,12 @@
       <c r="F31" s="23"/>
       <c r="G31" s="23"/>
       <c r="H31" s="23"/>
-      <c r="I31" s="223"/>
-      <c r="J31" s="224"/>
-    </row>
-    <row r="32" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I31" s="294"/>
+      <c r="J31" s="294"/>
+      <c r="K31" s="199"/>
+      <c r="L31" s="200"/>
+    </row>
+    <row r="32" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="19"/>
       <c r="B32" s="20"/>
       <c r="C32" s="21"/>
@@ -4593,10 +4932,12 @@
       <c r="F32" s="23"/>
       <c r="G32" s="23"/>
       <c r="H32" s="23"/>
-      <c r="I32" s="243"/>
-      <c r="J32" s="244"/>
-    </row>
-    <row r="33" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I32" s="294"/>
+      <c r="J32" s="294"/>
+      <c r="K32" s="197"/>
+      <c r="L32" s="198"/>
+    </row>
+    <row r="33" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="19"/>
       <c r="B33" s="20"/>
       <c r="C33" s="21"/>
@@ -4605,10 +4946,12 @@
       <c r="F33" s="23"/>
       <c r="G33" s="23"/>
       <c r="H33" s="23"/>
-      <c r="I33" s="245"/>
-      <c r="J33" s="246"/>
-    </row>
-    <row r="34" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I33" s="294"/>
+      <c r="J33" s="294"/>
+      <c r="K33" s="195"/>
+      <c r="L33" s="196"/>
+    </row>
+    <row r="34" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="19"/>
       <c r="B34" s="20"/>
       <c r="C34" s="21"/>
@@ -4617,10 +4960,12 @@
       <c r="F34" s="23"/>
       <c r="G34" s="23"/>
       <c r="H34" s="23"/>
-      <c r="I34" s="245"/>
-      <c r="J34" s="246"/>
-    </row>
-    <row r="35" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I34" s="294"/>
+      <c r="J34" s="294"/>
+      <c r="K34" s="195"/>
+      <c r="L34" s="196"/>
+    </row>
+    <row r="35" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="19"/>
       <c r="B35" s="20"/>
       <c r="C35" s="21"/>
@@ -4629,10 +4974,12 @@
       <c r="F35" s="23"/>
       <c r="G35" s="23"/>
       <c r="H35" s="23"/>
-      <c r="I35" s="245"/>
-      <c r="J35" s="246"/>
-    </row>
-    <row r="36" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I35" s="294"/>
+      <c r="J35" s="294"/>
+      <c r="K35" s="195"/>
+      <c r="L35" s="196"/>
+    </row>
+    <row r="36" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="19"/>
       <c r="B36" s="20"/>
       <c r="C36" s="21"/>
@@ -4641,10 +4988,12 @@
       <c r="F36" s="23"/>
       <c r="G36" s="23"/>
       <c r="H36" s="23"/>
-      <c r="I36" s="225"/>
-      <c r="J36" s="226"/>
-    </row>
-    <row r="37" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I36" s="294"/>
+      <c r="J36" s="294"/>
+      <c r="K36" s="189"/>
+      <c r="L36" s="190"/>
+    </row>
+    <row r="37" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="19"/>
       <c r="B37" s="20"/>
       <c r="C37" s="21"/>
@@ -4653,10 +5002,12 @@
       <c r="F37" s="23"/>
       <c r="G37" s="23"/>
       <c r="H37" s="23"/>
-      <c r="I37" s="245"/>
-      <c r="J37" s="246"/>
-    </row>
-    <row r="38" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I37" s="294"/>
+      <c r="J37" s="294"/>
+      <c r="K37" s="195"/>
+      <c r="L37" s="196"/>
+    </row>
+    <row r="38" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="19"/>
       <c r="B38" s="20"/>
       <c r="C38" s="21"/>
@@ -4665,10 +5016,12 @@
       <c r="F38" s="23"/>
       <c r="G38" s="23"/>
       <c r="H38" s="23"/>
-      <c r="I38" s="245"/>
-      <c r="J38" s="246"/>
-    </row>
-    <row r="39" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I38" s="294"/>
+      <c r="J38" s="294"/>
+      <c r="K38" s="195"/>
+      <c r="L38" s="196"/>
+    </row>
+    <row r="39" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="19"/>
       <c r="B39" s="20"/>
       <c r="C39" s="21"/>
@@ -4677,10 +5030,12 @@
       <c r="F39" s="23"/>
       <c r="G39" s="23"/>
       <c r="H39" s="23"/>
-      <c r="I39" s="225"/>
-      <c r="J39" s="226"/>
-    </row>
-    <row r="40" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I39" s="294"/>
+      <c r="J39" s="294"/>
+      <c r="K39" s="189"/>
+      <c r="L39" s="190"/>
+    </row>
+    <row r="40" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="19"/>
       <c r="B40" s="20"/>
       <c r="C40" s="21"/>
@@ -4689,10 +5044,12 @@
       <c r="F40" s="23"/>
       <c r="G40" s="23"/>
       <c r="H40" s="23"/>
-      <c r="I40" s="225"/>
-      <c r="J40" s="226"/>
-    </row>
-    <row r="41" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I40" s="294"/>
+      <c r="J40" s="294"/>
+      <c r="K40" s="189"/>
+      <c r="L40" s="190"/>
+    </row>
+    <row r="41" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="19"/>
       <c r="B41" s="20"/>
       <c r="C41" s="21"/>
@@ -4701,10 +5058,12 @@
       <c r="F41" s="23"/>
       <c r="G41" s="23"/>
       <c r="H41" s="23"/>
-      <c r="I41" s="225"/>
-      <c r="J41" s="226"/>
-    </row>
-    <row r="42" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I41" s="294"/>
+      <c r="J41" s="294"/>
+      <c r="K41" s="189"/>
+      <c r="L41" s="190"/>
+    </row>
+    <row r="42" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="19"/>
       <c r="B42" s="20"/>
       <c r="C42" s="21"/>
@@ -4713,10 +5072,12 @@
       <c r="F42" s="23"/>
       <c r="G42" s="23"/>
       <c r="H42" s="23"/>
-      <c r="I42" s="225"/>
-      <c r="J42" s="226"/>
-    </row>
-    <row r="43" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I42" s="294"/>
+      <c r="J42" s="294"/>
+      <c r="K42" s="189"/>
+      <c r="L42" s="190"/>
+    </row>
+    <row r="43" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="19"/>
       <c r="B43" s="20"/>
       <c r="C43" s="21"/>
@@ -4725,10 +5086,12 @@
       <c r="F43" s="23"/>
       <c r="G43" s="23"/>
       <c r="H43" s="23"/>
-      <c r="I43" s="225"/>
-      <c r="J43" s="226"/>
-    </row>
-    <row r="44" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I43" s="294"/>
+      <c r="J43" s="294"/>
+      <c r="K43" s="189"/>
+      <c r="L43" s="190"/>
+    </row>
+    <row r="44" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="19"/>
       <c r="B44" s="20"/>
       <c r="C44" s="21"/>
@@ -4737,10 +5100,12 @@
       <c r="F44" s="23"/>
       <c r="G44" s="23"/>
       <c r="H44" s="23"/>
-      <c r="I44" s="225"/>
-      <c r="J44" s="226"/>
-    </row>
-    <row r="45" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I44" s="294"/>
+      <c r="J44" s="294"/>
+      <c r="K44" s="189"/>
+      <c r="L44" s="190"/>
+    </row>
+    <row r="45" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="19"/>
       <c r="B45" s="20"/>
       <c r="C45" s="21"/>
@@ -4749,10 +5114,12 @@
       <c r="F45" s="23"/>
       <c r="G45" s="23"/>
       <c r="H45" s="23"/>
-      <c r="I45" s="225"/>
-      <c r="J45" s="226"/>
-    </row>
-    <row r="46" spans="1:10" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I45" s="294"/>
+      <c r="J45" s="294"/>
+      <c r="K45" s="189"/>
+      <c r="L45" s="190"/>
+    </row>
+    <row r="46" spans="1:12" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A46" s="177"/>
       <c r="B46" s="144"/>
       <c r="C46" s="178"/>
@@ -4761,16 +5128,18 @@
       <c r="F46" s="105"/>
       <c r="G46" s="105"/>
       <c r="H46" s="105"/>
-      <c r="I46" s="227"/>
-      <c r="J46" s="228"/>
-    </row>
-    <row r="47" spans="1:10" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="I46" s="298"/>
+      <c r="J46" s="298"/>
+      <c r="K46" s="221"/>
+      <c r="L46" s="222"/>
+    </row>
+    <row r="47" spans="1:12" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A47" s="28"/>
       <c r="B47" s="29"/>
-      <c r="C47" s="229" t="s">
+      <c r="C47" s="223" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="229"/>
+      <c r="D47" s="223"/>
       <c r="E47" s="30"/>
       <c r="F47" s="31">
         <f>SUM(F8:F46)</f>
@@ -4784,332 +5153,385 @@
         <f>SUM(H8:H46)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="32"/>
-      <c r="J47" s="33"/>
-    </row>
-    <row r="48" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="34"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="230" t="s">
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="32"/>
+      <c r="L47" s="33"/>
+    </row>
+    <row r="48" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="301"/>
+      <c r="B48" s="302"/>
+      <c r="C48" s="307" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" s="308"/>
+      <c r="E48" s="303"/>
+      <c r="F48" s="304"/>
+      <c r="G48" s="304"/>
+      <c r="H48" s="304"/>
+      <c r="I48" s="304"/>
+      <c r="J48" s="304"/>
+      <c r="K48" s="305"/>
+      <c r="L48" s="306"/>
+    </row>
+    <row r="49" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A49" s="34"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="224" t="s">
         <v>7</v>
       </c>
-      <c r="D48" s="230"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="37">
-        <f>F47*$E$48</f>
+      <c r="D49" s="224"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="37">
+        <f>F47*$E$49</f>
         <v>0</v>
       </c>
-      <c r="G48" s="37">
-        <f t="shared" ref="G48:H48" si="0">G47*$E$48</f>
+      <c r="G49" s="37">
+        <f>G47*$E$49</f>
         <v>0</v>
       </c>
-      <c r="H48" s="37">
-        <f t="shared" si="0"/>
+      <c r="H49" s="37">
+        <f>H47*$E$49</f>
         <v>0</v>
       </c>
-      <c r="I48" s="38"/>
-      <c r="J48" s="39"/>
-    </row>
-    <row r="49" spans="1:10" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A49" s="40"/>
-      <c r="B49" s="41"/>
-      <c r="C49" s="213" t="s">
+      <c r="I49" s="37"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="39"/>
+    </row>
+    <row r="50" spans="1:12" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A50" s="40"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="211" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="213"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="43">
-        <f>F47+F48</f>
+      <c r="D50" s="211"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="43">
+        <f>F47+F49</f>
         <v>0</v>
       </c>
-      <c r="G49" s="43">
-        <f t="shared" ref="G49:H49" si="1">G47+G48</f>
+      <c r="G50" s="43">
+        <f>G47+G49</f>
         <v>0</v>
       </c>
-      <c r="H49" s="43">
-        <f t="shared" si="1"/>
+      <c r="H50" s="43">
+        <f>H47+H49</f>
         <v>0</v>
       </c>
-      <c r="I49" s="44"/>
-      <c r="J49" s="45"/>
-    </row>
-    <row r="50" spans="1:10" s="48" customFormat="1" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="187" t="s">
+      <c r="I50" s="43"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="45"/>
+    </row>
+    <row r="51" spans="1:12" s="48" customFormat="1" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="228" t="s">
         <v>33</v>
       </c>
-      <c r="B50" s="187"/>
-      <c r="C50" s="187"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="47"/>
-      <c r="I50" s="206"/>
-      <c r="J50" s="206"/>
-    </row>
-    <row r="51" spans="1:10" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A51" s="207" t="s">
+      <c r="B51" s="228"/>
+      <c r="C51" s="228"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="47"/>
+      <c r="K51" s="247"/>
+      <c r="L51" s="247"/>
+    </row>
+    <row r="52" spans="1:12" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A52" s="248" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="208"/>
-      <c r="C51" s="209" t="s">
+      <c r="B52" s="249"/>
+      <c r="C52" s="250" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="210"/>
-      <c r="E51" s="49" t="s">
+      <c r="D52" s="251"/>
+      <c r="E52" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="F51" s="79" t="s">
+      <c r="F52" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="G51" s="160" t="s">
+      <c r="G52" s="160" t="s">
         <v>4</v>
       </c>
-      <c r="H51" s="160" t="s">
+      <c r="H52" s="160" t="s">
         <v>4</v>
       </c>
-      <c r="I51" s="211" t="s">
+      <c r="I52" s="187" t="s">
+        <v>39</v>
+      </c>
+      <c r="J52" s="187" t="s">
+        <v>40</v>
+      </c>
+      <c r="K52" s="252" t="s">
         <v>5</v>
       </c>
-      <c r="J51" s="212"/>
-    </row>
-    <row r="52" spans="1:10" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="50"/>
-      <c r="B52" s="51"/>
-      <c r="C52" s="52"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="54"/>
-      <c r="H52" s="54"/>
-      <c r="I52" s="247"/>
-      <c r="J52" s="248"/>
-    </row>
-    <row r="53" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="180"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="56"/>
-      <c r="F53" s="57"/>
-      <c r="G53" s="57"/>
-      <c r="H53" s="57"/>
-      <c r="I53" s="249"/>
-      <c r="J53" s="250"/>
-    </row>
-    <row r="54" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L52" s="253"/>
+    </row>
+    <row r="53" spans="1:12" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="50"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="191"/>
+      <c r="L53" s="192"/>
+    </row>
+    <row r="54" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="180"/>
-      <c r="B54" s="63"/>
-      <c r="C54" s="181"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="55"/>
       <c r="D54" s="22"/>
       <c r="E54" s="56"/>
       <c r="F54" s="57"/>
       <c r="G54" s="57"/>
       <c r="H54" s="57"/>
-      <c r="I54" s="193"/>
-      <c r="J54" s="194"/>
-    </row>
-    <row r="55" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="163"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="55"/>
-      <c r="D55" s="81"/>
+      <c r="I54" s="299"/>
+      <c r="J54" s="299"/>
+      <c r="K54" s="193"/>
+      <c r="L54" s="194"/>
+    </row>
+    <row r="55" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="180"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="181"/>
+      <c r="D55" s="22"/>
       <c r="E55" s="56"/>
       <c r="F55" s="57"/>
       <c r="G55" s="57"/>
       <c r="H55" s="57"/>
-      <c r="I55" s="193"/>
-      <c r="J55" s="194"/>
-    </row>
-    <row r="56" spans="1:10" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="82"/>
-      <c r="B56" s="83"/>
-      <c r="C56" s="84"/>
-      <c r="D56" s="85"/>
-      <c r="E56" s="86"/>
-      <c r="F56" s="87"/>
-      <c r="G56" s="87"/>
-      <c r="H56" s="87"/>
-      <c r="I56" s="195"/>
-      <c r="J56" s="196"/>
-    </row>
-    <row r="57" spans="1:10" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A57" s="40"/>
-      <c r="B57" s="41"/>
-      <c r="C57" s="192" t="s">
+      <c r="I55" s="299"/>
+      <c r="J55" s="299"/>
+      <c r="K55" s="234"/>
+      <c r="L55" s="235"/>
+    </row>
+    <row r="56" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="163"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="81"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="299"/>
+      <c r="J56" s="299"/>
+      <c r="K56" s="234"/>
+      <c r="L56" s="235"/>
+    </row>
+    <row r="57" spans="1:12" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A57" s="82"/>
+      <c r="B57" s="83"/>
+      <c r="C57" s="84"/>
+      <c r="D57" s="85"/>
+      <c r="E57" s="86"/>
+      <c r="F57" s="87"/>
+      <c r="G57" s="87"/>
+      <c r="H57" s="87"/>
+      <c r="I57" s="300"/>
+      <c r="J57" s="300"/>
+      <c r="K57" s="236"/>
+      <c r="L57" s="237"/>
+    </row>
+    <row r="58" spans="1:12" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A58" s="40"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="233" t="s">
         <v>9</v>
       </c>
-      <c r="D57" s="192"/>
-      <c r="E57" s="42" t="s">
+      <c r="D58" s="233"/>
+      <c r="E58" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="F57" s="60">
-        <f>SUM(F52:F56)</f>
+      <c r="F58" s="60">
+        <f>SUM(F53:F57)</f>
         <v>0</v>
       </c>
-      <c r="G57" s="60">
-        <f t="shared" ref="G57:H57" si="2">SUM(G52:G56)</f>
+      <c r="G58" s="60">
+        <f t="shared" ref="G58:H58" si="0">SUM(G53:G57)</f>
         <v>0</v>
       </c>
-      <c r="H57" s="60">
-        <f t="shared" si="2"/>
+      <c r="H58" s="60">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I57" s="61"/>
-      <c r="J57" s="62"/>
-    </row>
-    <row r="58" spans="1:10" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A58" s="67"/>
-      <c r="B58" s="41"/>
-      <c r="C58" s="41"/>
-      <c r="D58" s="67"/>
-      <c r="E58" s="67"/>
-      <c r="F58" s="68"/>
-      <c r="G58" s="68"/>
-      <c r="H58" s="68"/>
-      <c r="I58" s="68"/>
-      <c r="J58" s="41"/>
-    </row>
-    <row r="59" spans="1:10" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A59" s="69"/>
-      <c r="B59" s="70" t="s">
+      <c r="I58" s="60"/>
+      <c r="J58" s="60"/>
+      <c r="K58" s="61"/>
+      <c r="L58" s="62"/>
+    </row>
+    <row r="59" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A59" s="67"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="67"/>
+      <c r="E59" s="67"/>
+      <c r="F59" s="68"/>
+      <c r="G59" s="68"/>
+      <c r="H59" s="68"/>
+      <c r="I59" s="68"/>
+      <c r="J59" s="68"/>
+      <c r="K59" s="68"/>
+      <c r="L59" s="41"/>
+    </row>
+    <row r="60" spans="1:12" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A60" s="69"/>
+      <c r="B60" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="C59" s="71"/>
-      <c r="D59" s="72" t="s">
+      <c r="C60" s="71"/>
+      <c r="D60" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="E59" s="73"/>
-      <c r="F59" s="203">
-        <f>H49+H57</f>
+      <c r="E60" s="73"/>
+      <c r="F60" s="244">
+        <f>H50+H58</f>
         <v>0</v>
       </c>
-      <c r="G59" s="204"/>
-      <c r="H59" s="205"/>
-      <c r="I59" s="197" t="s">
+      <c r="G60" s="245"/>
+      <c r="H60" s="246"/>
+      <c r="I60" s="186"/>
+      <c r="J60" s="186"/>
+      <c r="K60" s="238" t="s">
         <v>13</v>
       </c>
-      <c r="J59" s="198"/>
-    </row>
-    <row r="60" spans="1:10" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="199"/>
-      <c r="B60" s="199"/>
-      <c r="C60" s="199"/>
-      <c r="D60" s="199"/>
-      <c r="E60" s="200"/>
-      <c r="F60" s="74" t="s">
+      <c r="L60" s="239"/>
+    </row>
+    <row r="61" spans="1:12" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="240"/>
+      <c r="B61" s="240"/>
+      <c r="C61" s="240"/>
+      <c r="D61" s="240"/>
+      <c r="E61" s="241"/>
+      <c r="F61" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="G60" s="161"/>
-      <c r="H60" s="161"/>
-      <c r="I60" s="201"/>
-      <c r="J60" s="202"/>
-    </row>
-    <row r="61" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A61" s="188"/>
-      <c r="B61" s="188"/>
-      <c r="C61" s="188"/>
-      <c r="D61" s="188"/>
-      <c r="E61" s="189"/>
-      <c r="F61" s="75" t="s">
+      <c r="G61" s="161"/>
+      <c r="H61" s="161"/>
+      <c r="I61" s="161"/>
+      <c r="J61" s="161"/>
+      <c r="K61" s="242"/>
+      <c r="L61" s="243"/>
+    </row>
+    <row r="62" spans="1:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A62" s="229"/>
+      <c r="B62" s="229"/>
+      <c r="C62" s="229"/>
+      <c r="D62" s="229"/>
+      <c r="E62" s="230"/>
+      <c r="F62" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="G61" s="162"/>
-      <c r="H61" s="162"/>
-      <c r="I61" s="190"/>
-      <c r="J61" s="191"/>
-    </row>
-    <row r="62" spans="1:10" ht="20.25" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="76"/>
-      <c r="B62" s="77"/>
-      <c r="C62" s="77"/>
-      <c r="D62" s="77"/>
-      <c r="E62" s="77"/>
-      <c r="F62" s="77"/>
-      <c r="G62" s="77"/>
-      <c r="H62" s="77"/>
-      <c r="I62" s="77"/>
-      <c r="J62" s="77"/>
+      <c r="G62" s="162"/>
+      <c r="H62" s="162"/>
+      <c r="I62" s="162"/>
+      <c r="J62" s="162"/>
+      <c r="K62" s="231"/>
+      <c r="L62" s="232"/>
+    </row>
+    <row r="63" spans="1:12" ht="20.25" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="76"/>
+      <c r="B63" s="77"/>
+      <c r="C63" s="77"/>
+      <c r="D63" s="77"/>
+      <c r="E63" s="77"/>
+      <c r="F63" s="77"/>
+      <c r="G63" s="77"/>
+      <c r="H63" s="77"/>
+      <c r="I63" s="77"/>
+      <c r="J63" s="77"/>
+      <c r="K63" s="77"/>
+      <c r="L63" s="77"/>
     </row>
   </sheetData>
-  <mergeCells count="66">
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A2:J2"/>
+  <mergeCells count="67">
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A2:L2"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K46:L46"/>
     <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K43:L43"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="62" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="60" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
@@ -5641,8 +6063,8 @@
       </c>
       <c r="B1" s="91"/>
       <c r="C1" s="3"/>
-      <c r="G1" s="289"/>
-      <c r="H1" s="289"/>
+      <c r="G1" s="257"/>
+      <c r="H1" s="257"/>
     </row>
     <row r="2" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="90"/>
@@ -5652,16 +6074,16 @@
       <c r="H2" s="92"/>
     </row>
     <row r="3" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="215" t="s">
+      <c r="A3" s="213" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="215"/>
-      <c r="C3" s="215"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="215"/>
-      <c r="G3" s="215"/>
-      <c r="H3" s="215"/>
+      <c r="B3" s="213"/>
+      <c r="C3" s="213"/>
+      <c r="D3" s="213"/>
+      <c r="E3" s="213"/>
+      <c r="F3" s="213"/>
+      <c r="G3" s="213"/>
+      <c r="H3" s="213"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="89"/>
@@ -5692,31 +6114,31 @@
       <c r="C8" s="98"/>
     </row>
     <row r="9" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="290" t="s">
+      <c r="A9" s="258" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="290"/>
+      <c r="B9" s="258"/>
       <c r="C9" s="98"/>
     </row>
     <row r="10" spans="1:8" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="270" t="s">
+      <c r="A10" s="259" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="271"/>
-      <c r="C10" s="272" t="s">
+      <c r="B10" s="260"/>
+      <c r="C10" s="261" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="273"/>
+      <c r="D10" s="262"/>
       <c r="E10" s="99" t="s">
         <v>3</v>
       </c>
       <c r="F10" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="274" t="s">
+      <c r="G10" s="263" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="275"/>
+      <c r="H10" s="264"/>
     </row>
     <row r="11" spans="1:8" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A11" s="101"/>
@@ -5731,8 +6153,8 @@
       </c>
       <c r="E11" s="151"/>
       <c r="F11" s="102"/>
-      <c r="G11" s="267"/>
-      <c r="H11" s="268"/>
+      <c r="G11" s="266"/>
+      <c r="H11" s="267"/>
     </row>
     <row r="12" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="103"/>
@@ -5741,8 +6163,8 @@
       <c r="D12" s="18"/>
       <c r="E12" s="152"/>
       <c r="F12" s="23"/>
-      <c r="G12" s="278"/>
-      <c r="H12" s="279"/>
+      <c r="G12" s="271"/>
+      <c r="H12" s="272"/>
     </row>
     <row r="13" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="104"/>
@@ -5751,16 +6173,16 @@
       <c r="D13" s="59"/>
       <c r="E13" s="153"/>
       <c r="F13" s="105"/>
-      <c r="G13" s="280"/>
-      <c r="H13" s="281"/>
+      <c r="G13" s="273"/>
+      <c r="H13" s="274"/>
     </row>
     <row r="14" spans="1:8" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="40"/>
       <c r="B14" s="41"/>
-      <c r="C14" s="269" t="s">
+      <c r="C14" s="268" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="269"/>
+      <c r="D14" s="268"/>
       <c r="E14" s="42"/>
       <c r="F14" s="43">
         <f>SUM(F11:F13)</f>
@@ -5792,24 +6214,24 @@
       <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="270" t="s">
+      <c r="A17" s="259" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="271"/>
-      <c r="C17" s="272" t="s">
+      <c r="B17" s="260"/>
+      <c r="C17" s="261" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="273"/>
+      <c r="D17" s="262"/>
       <c r="E17" s="99" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="274" t="s">
+      <c r="G17" s="263" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="275"/>
+      <c r="H17" s="264"/>
     </row>
     <row r="18" spans="1:8" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A18" s="115"/>
@@ -5818,8 +6240,8 @@
       <c r="D18" s="14"/>
       <c r="E18" s="147"/>
       <c r="F18" s="117"/>
-      <c r="G18" s="282"/>
-      <c r="H18" s="283"/>
+      <c r="G18" s="275"/>
+      <c r="H18" s="276"/>
     </row>
     <row r="19" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="118"/>
@@ -5828,16 +6250,16 @@
       <c r="D19" s="146"/>
       <c r="E19" s="148"/>
       <c r="F19" s="119"/>
-      <c r="G19" s="284"/>
-      <c r="H19" s="285"/>
+      <c r="G19" s="277"/>
+      <c r="H19" s="278"/>
     </row>
     <row r="20" spans="1:8" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="40"/>
       <c r="B20" s="41"/>
-      <c r="C20" s="269" t="s">
+      <c r="C20" s="268" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="269"/>
+      <c r="D20" s="268"/>
       <c r="E20" s="42"/>
       <c r="F20" s="43">
         <f>SUM(F18:F18)</f>
@@ -5857,10 +6279,10 @@
       <c r="H21" s="113"/>
     </row>
     <row r="22" spans="1:8" s="125" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="276" t="s">
+      <c r="A22" s="269" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="276"/>
+      <c r="B22" s="269"/>
       <c r="C22" s="122"/>
       <c r="D22" s="123"/>
       <c r="E22" s="123"/>
@@ -5869,24 +6291,24 @@
       <c r="H22" s="124"/>
     </row>
     <row r="23" spans="1:8" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="270" t="s">
+      <c r="A23" s="259" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="273"/>
-      <c r="C23" s="272" t="s">
+      <c r="B23" s="262"/>
+      <c r="C23" s="261" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="273"/>
+      <c r="D23" s="262"/>
       <c r="E23" s="99" t="s">
         <v>3</v>
       </c>
       <c r="F23" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="274" t="s">
+      <c r="G23" s="263" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="275"/>
+      <c r="H23" s="264"/>
     </row>
     <row r="24" spans="1:8" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A24" s="101"/>
@@ -5895,8 +6317,8 @@
       <c r="D24" s="65"/>
       <c r="E24" s="126"/>
       <c r="F24" s="127"/>
-      <c r="G24" s="286"/>
-      <c r="H24" s="248"/>
+      <c r="G24" s="254"/>
+      <c r="H24" s="192"/>
     </row>
     <row r="25" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="104"/>
@@ -5905,16 +6327,16 @@
       <c r="D25" s="59"/>
       <c r="E25" s="128"/>
       <c r="F25" s="129"/>
-      <c r="G25" s="287"/>
-      <c r="H25" s="288"/>
+      <c r="G25" s="255"/>
+      <c r="H25" s="256"/>
     </row>
     <row r="26" spans="1:8" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="40"/>
       <c r="B26" s="41"/>
-      <c r="C26" s="277" t="s">
+      <c r="C26" s="270" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="277"/>
+      <c r="D26" s="270"/>
       <c r="E26" s="130"/>
       <c r="F26" s="131">
         <f>SUM(F24:F25)</f>
@@ -5934,71 +6356,71 @@
       <c r="H27" s="121"/>
     </row>
     <row r="28" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="266" t="s">
+      <c r="A28" s="265" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="266"/>
-      <c r="C28" s="266"/>
-      <c r="D28" s="266"/>
-      <c r="E28" s="266"/>
-      <c r="F28" s="266"/>
-      <c r="G28" s="266"/>
-      <c r="H28" s="266"/>
+      <c r="B28" s="265"/>
+      <c r="C28" s="265"/>
+      <c r="D28" s="265"/>
+      <c r="E28" s="265"/>
+      <c r="F28" s="265"/>
+      <c r="G28" s="265"/>
+      <c r="H28" s="265"/>
     </row>
     <row r="29" spans="1:8" ht="27.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="137"/>
       <c r="B29" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="255" t="s">
+      <c r="C29" s="283" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="255"/>
+      <c r="D29" s="283"/>
       <c r="E29" s="139"/>
       <c r="F29" s="140">
         <f>F14+F20+F26</f>
         <v>0</v>
       </c>
-      <c r="G29" s="256" t="s">
+      <c r="G29" s="284" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="257"/>
+      <c r="H29" s="285"/>
     </row>
     <row r="30" spans="1:8" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A30" s="141"/>
       <c r="B30" s="141"/>
       <c r="C30" s="141"/>
-      <c r="D30" s="258" t="s">
+      <c r="D30" s="286" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="259"/>
-      <c r="F30" s="260"/>
-      <c r="G30" s="260"/>
-      <c r="H30" s="261"/>
+      <c r="E30" s="287"/>
+      <c r="F30" s="288"/>
+      <c r="G30" s="288"/>
+      <c r="H30" s="289"/>
     </row>
     <row r="31" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="142"/>
       <c r="B31" s="142"/>
       <c r="C31" s="142"/>
-      <c r="D31" s="262" t="s">
+      <c r="D31" s="290" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="263"/>
-      <c r="F31" s="264"/>
-      <c r="G31" s="264"/>
-      <c r="H31" s="265"/>
+      <c r="E31" s="291"/>
+      <c r="F31" s="292"/>
+      <c r="G31" s="292"/>
+      <c r="H31" s="293"/>
     </row>
     <row r="32" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="88"/>
       <c r="B32" s="88"/>
       <c r="C32" s="88"/>
-      <c r="D32" s="251" t="s">
+      <c r="D32" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="252"/>
-      <c r="F32" s="253"/>
-      <c r="G32" s="253"/>
-      <c r="H32" s="254"/>
+      <c r="E32" s="280"/>
+      <c r="F32" s="281"/>
+      <c r="G32" s="281"/>
+      <c r="H32" s="282"/>
     </row>
     <row r="33" spans="1:8" ht="20.25" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A33" s="76"/>
@@ -6012,14 +6434,14 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:H31"/>
     <mergeCell ref="A28:H28"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="C14:D14"/>
@@ -6036,14 +6458,14 @@
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
